--- a/dados_historicos/dados_geral/preco_milho_brl.xlsx
+++ b/dados_historicos/dados_geral/preco_milho_brl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cliente HT\Desktop\programas python\PRODUÇÃO DE GADO\dados_historicos\dados_geral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2710A980-30F3-4C7A-B0B2-DA7E5F0FD39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF9FD52A-BA44-4339-B605-45640CA9A2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{DF295B20-D62A-49EF-8373-1BCB539CA9A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{97233F8A-752D-4732-BDE5-EFEBA98AC566}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan 1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5266" uniqueCount="5266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5272" uniqueCount="5272">
   <si>
     <t>INDICADOR DO MILHO ESALQ/BM&amp;FBOVESPA</t>
   </si>
@@ -15819,6 +15819,24 @@
   </si>
   <si>
     <t>15/09/2025</t>
+  </si>
+  <si>
+    <t>16/09/2025</t>
+  </si>
+  <si>
+    <t>17/09/2025</t>
+  </si>
+  <si>
+    <t>18/09/2025</t>
+  </si>
+  <si>
+    <t>19/09/2025</t>
+  </si>
+  <si>
+    <t>22/09/2025</t>
+  </si>
+  <si>
+    <t>23/09/2025</t>
   </si>
 </sst>
 </file>
@@ -16258,11 +16276,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81BC0D3-2233-4EA6-AE19-4BFD6585D225}">
-  <dimension ref="A1:J5265"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81DF78E-0F00-455D-ABE2-95D1BC969273}">
+  <dimension ref="A1:J5271"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C5265"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -74192,6 +74210,72 @@
       </c>
       <c r="C5265" s="2">
         <v>12.24</v>
+      </c>
+    </row>
+    <row r="5266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5266" t="s">
+        <v>5266</v>
+      </c>
+      <c r="B5266" s="2">
+        <v>65.19</v>
+      </c>
+      <c r="C5266" s="2">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="5267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5267" t="s">
+        <v>5267</v>
+      </c>
+      <c r="B5267" s="2">
+        <v>65.36</v>
+      </c>
+      <c r="C5267" s="2">
+        <v>12.33</v>
+      </c>
+    </row>
+    <row r="5268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5268" t="s">
+        <v>5268</v>
+      </c>
+      <c r="B5268" s="2">
+        <v>65.33</v>
+      </c>
+      <c r="C5268" s="2">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="5269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5269" t="s">
+        <v>5269</v>
+      </c>
+      <c r="B5269" s="2">
+        <v>65.319999999999993</v>
+      </c>
+      <c r="C5269" s="2">
+        <v>12.28</v>
+      </c>
+    </row>
+    <row r="5270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5270" t="s">
+        <v>5270</v>
+      </c>
+      <c r="B5270" s="2">
+        <v>64.75</v>
+      </c>
+      <c r="C5270" s="2">
+        <v>12.13</v>
+      </c>
+    </row>
+    <row r="5271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5271" t="s">
+        <v>5271</v>
+      </c>
+      <c r="B5271" s="2">
+        <v>64.319999999999993</v>
+      </c>
+      <c r="C5271" s="2">
+        <v>12.17</v>
       </c>
     </row>
   </sheetData>
@@ -74208,7 +74292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E597333F-E332-41C6-B5A8-98E66C4ADC6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3C377E-4EC2-411C-8C99-6650211C2CB1}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0"/>
